--- a/src/metadata/grouped/GroupedBy:['Target']/H2O_x/Metadata:H2O_x.xlsx
+++ b/src/metadata/grouped/GroupedBy:['Target']/H2O_x/Metadata:H2O_x.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -977,241 +977,241 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9119047619047619</v>
+        <v>0.6422181069958848</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9119047619047619</v>
+        <v>0.6422181069958848</v>
       </c>
       <c r="D4" t="n">
-        <v>9.128066666666665</v>
+        <v>7.837423868312757</v>
       </c>
       <c r="E4" t="n">
-        <v>9.128066666666665</v>
+        <v>7.892567901234568</v>
       </c>
       <c r="F4" t="n">
-        <v>560</v>
+        <v>890.9687242798353</v>
       </c>
       <c r="G4" t="n">
-        <v>1030</v>
+        <v>1179.078925925926</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8872705358619047</v>
+        <v>0.8709269386329218</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001797595893333333</v>
+        <v>-0.0102177747</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9868997858619049</v>
+        <v>0.9395102727502058</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9813722812828573</v>
+        <v>0.9302453533954733</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8578279077000001</v>
+        <v>0.8794118266193416</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7065920580466667</v>
+        <v>0.7665747811127572</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8954655911466666</v>
+        <v>0.8549096989596707</v>
       </c>
       <c r="O4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.08</v>
+        <v>0.467</v>
       </c>
       <c r="R4" t="n">
-        <v>6.08</v>
+        <v>0.467</v>
       </c>
       <c r="S4" t="n">
-        <v>560</v>
+        <v>800</v>
       </c>
       <c r="T4" t="n">
-        <v>1030</v>
+        <v>1000</v>
       </c>
       <c r="U4" t="n">
-        <v>0.6493852642</v>
+        <v>-1</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0001849849</v>
+        <v>-1</v>
       </c>
       <c r="W4" t="n">
-        <v>0.9657523821</v>
+        <v>-1</v>
       </c>
       <c r="X4" t="n">
-        <v>0.9424191463</v>
+        <v>-1</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0706319394</v>
+        <v>-1</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.3545168841</v>
+        <v>-1</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.4593977273</v>
+        <v>-1</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.5</v>
+        <v>2.99</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.5</v>
+        <v>2.99</v>
       </c>
       <c r="AD4" t="n">
-        <v>10.133</v>
+        <v>40</v>
       </c>
       <c r="AE4" t="n">
-        <v>10.133</v>
+        <v>40</v>
       </c>
       <c r="AF4" t="n">
-        <v>560</v>
+        <v>986</v>
       </c>
       <c r="AG4" t="n">
-        <v>1030</v>
+        <v>1262</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.9645057748</v>
+        <v>0.9680961335</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.0123637016</v>
+        <v>0.0167225395</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.997657244</v>
+        <v>0.9973059754</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.9945713356</v>
+        <v>0.9934719576</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.9808544878</v>
+        <v>0.9862664711</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.9226366655</v>
+        <v>0.9603274182</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.9920946291</v>
+        <v>0.9943449702</v>
       </c>
       <c r="AO4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ4" t="n">
-        <v>10.133</v>
+        <v>9.869</v>
       </c>
       <c r="AR4" t="n">
-        <v>10.133</v>
+        <v>9.869</v>
       </c>
       <c r="AS4" t="n">
-        <v>560</v>
+        <v>900</v>
       </c>
       <c r="AT4" t="n">
-        <v>1030</v>
+        <v>1200</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.8990550522</v>
+        <v>0.915602657</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.0012276132</v>
+        <v>0.0016704548</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.9895383008999999</v>
+        <v>0.9895783199</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.9815180610999999</v>
+        <v>0.9823400682</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.8809618256</v>
+        <v>0.9387592451</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.70937175</v>
+        <v>0.7999984017</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.9444587766</v>
+        <v>0.9023517037</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.4803606322299286</v>
+        <v>0.4509912472823916</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.4803606322299286</v>
+        <v>0.4509912472823916</v>
       </c>
       <c r="BD4" t="n">
-        <v>1.757018558998927</v>
+        <v>4.597166662151074</v>
       </c>
       <c r="BE4" t="n">
-        <v>1.757018558998927</v>
+        <v>4.75408737130553</v>
       </c>
       <c r="BF4" t="n">
-        <v>0</v>
+        <v>53.49973891588905</v>
       </c>
       <c r="BG4" t="n">
-        <v>0</v>
+        <v>48.29760768165799</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.06198892977566858</v>
+        <v>0.2225115017336256</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.00180333909056913</v>
+        <v>0.1109076696325963</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.008160550860882033</v>
+        <v>0.2352635503594669</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.008700872197523329</v>
+        <v>0.2431009434359486</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.1186796733124424</v>
+        <v>0.2585608950203079</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.1328141473822382</v>
+        <v>0.2163400810682947</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.1266383600283395</v>
+        <v>0.2352702367780324</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.2307463369963368</v>
+        <v>0.2033931051253274</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.2307463369963368</v>
+        <v>0.2033931051253274</v>
       </c>
       <c r="BQ4" t="n">
-        <v>3.087114216666665</v>
+        <v>21.13394131959324</v>
       </c>
       <c r="BR4" t="n">
-        <v>3.087114216666665</v>
+        <v>22.60134673400673</v>
       </c>
       <c r="BS4" t="n">
-        <v>0</v>
+        <v>2862.222064068294</v>
       </c>
       <c r="BT4" t="n">
-        <v>0</v>
+        <v>2332.658907771348</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.00384262741473277</v>
+        <v>0.04951136840375326</v>
       </c>
       <c r="BV4" t="n">
-        <v>3.252031875574698e-06</v>
+        <v>0.01230051118333311</v>
       </c>
       <c r="BW4" t="n">
-        <v>6.659459035304249e-05</v>
+        <v>0.05534893812774142</v>
       </c>
       <c r="BX4" t="n">
-        <v>7.570517699763447e-05</v>
+        <v>0.05909806869944827</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.01408486485754805</v>
+        <v>0.06685373643370268</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.01763959774487088</v>
+        <v>0.04680303067663635</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.01603727423066734</v>
+        <v>0.05535208431359144</v>
       </c>
       <c r="CB4" t="n">
-        <v>105</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5">
@@ -1219,43 +1219,43 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6948106060606061</v>
+        <v>0.534625</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6948106060606061</v>
+        <v>23.034625</v>
       </c>
       <c r="D5" t="n">
-        <v>9.45771212121212</v>
+        <v>10.840425</v>
       </c>
       <c r="E5" t="n">
-        <v>9.649909090909091</v>
+        <v>10.959425</v>
       </c>
       <c r="F5" t="n">
-        <v>1067.860234848485</v>
+        <v>1099.21</v>
       </c>
       <c r="G5" t="n">
-        <v>1198.31046969697</v>
+        <v>1901.7325</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7638503355424242</v>
+        <v>0.84518107738</v>
       </c>
       <c r="I5" t="n">
-        <v>0.004496421938636364</v>
+        <v>0.0039492273925</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7881209785613636</v>
+        <v>0.89768319371</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6594244160287879</v>
+        <v>0.8149391013024999</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8795300019325758</v>
+        <v>0.92273294294</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7160489864189393</v>
+        <v>0.766052923715</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7699888151469697</v>
+        <v>0.8348391513325</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -1264,34 +1264,34 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.987</v>
+        <v>0.82</v>
       </c>
       <c r="R5" t="n">
-        <v>0.987</v>
+        <v>1.1</v>
       </c>
       <c r="S5" t="n">
-        <v>974.98</v>
+        <v>882</v>
       </c>
       <c r="T5" t="n">
-        <v>1040</v>
+        <v>1700</v>
       </c>
       <c r="U5" t="n">
-        <v>0.4141569367</v>
+        <v>0.5970137135</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0001081562</v>
+        <v>0.0003933617</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2841792758</v>
+        <v>0.5963632551</v>
       </c>
       <c r="X5" t="n">
-        <v>0.3241452063</v>
+        <v>0.4948970297</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.0289887956</v>
+        <v>0.7073499865</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.1047507834</v>
+        <v>0.5126257609</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
@@ -1300,160 +1300,160 @@
         <v>2</v>
       </c>
       <c r="AC5" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="AD5" t="n">
-        <v>150</v>
+        <v>50.663</v>
       </c>
       <c r="AE5" t="n">
-        <v>150</v>
+        <v>50.663</v>
       </c>
       <c r="AF5" t="n">
-        <v>1180.68</v>
+        <v>1275.4</v>
       </c>
       <c r="AG5" t="n">
-        <v>1311</v>
+        <v>2374</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.9646040933</v>
+        <v>0.9594318944</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.0175630638</v>
+        <v>0.0121578455</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.9961060343</v>
+        <v>0.9983894842</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.9906514389</v>
+        <v>0.9957018801</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.9761792825</v>
+        <v>0.9698015395</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.9594922487999999</v>
+        <v>0.9538410307</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.9912285399</v>
+        <v>0.982625636</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.6</v>
+        <v>0.629</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.013</v>
+        <v>1.621</v>
       </c>
       <c r="AR5" t="n">
-        <v>1.013</v>
+        <v>1.825</v>
       </c>
       <c r="AS5" t="n">
-        <v>1096.065</v>
+        <v>1072.75</v>
       </c>
       <c r="AT5" t="n">
-        <v>1199</v>
+        <v>1884</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.7794462998</v>
+        <v>0.8517308237500001</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.0041940604</v>
+        <v>0.00390807255</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.79371319555</v>
+        <v>0.9113534478</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.5542267312</v>
+        <v>0.78688738125</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.9245966694</v>
+        <v>0.9420221359000001</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.7594082165</v>
+        <v>0.7868686014999999</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.8707088451</v>
+        <v>0.9048899589</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.4877029212836821</v>
+        <v>0.4162518152728571</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.4877029212836821</v>
+        <v>41.99952147388416</v>
       </c>
       <c r="BD5" t="n">
-        <v>18.69407161263907</v>
+        <v>17.65409899797008</v>
       </c>
       <c r="BE5" t="n">
-        <v>18.77693725338685</v>
+        <v>17.59478095678681</v>
       </c>
       <c r="BF5" t="n">
-        <v>49.18281013252707</v>
+        <v>102.68476595374</v>
       </c>
       <c r="BG5" t="n">
-        <v>77.01735179403079</v>
+        <v>143.9032436823704</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.1101743745017771</v>
+        <v>0.08352493481637549</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.003463791703445257</v>
+        <v>0.002761018897603769</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.1703403634955478</v>
+        <v>0.1083337232431333</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.2155958198795459</v>
+        <v>0.162905248587099</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.1415432709863219</v>
+        <v>0.05045752440115082</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.1573247406747775</v>
+        <v>0.09946686780236291</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.240301880872243</v>
+        <v>0.1878514880030416</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.2378541394286375</v>
+        <v>0.1732655737179487</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.2378541394286375</v>
+        <v>1763.959804035256</v>
       </c>
       <c r="BQ5" t="n">
-        <v>349.468313458478</v>
+        <v>311.6672114301282</v>
       </c>
       <c r="BR5" t="n">
-        <v>352.5733726176268</v>
+        <v>309.5763169173076</v>
       </c>
       <c r="BS5" t="n">
-        <v>2418.948812532208</v>
+        <v>10544.16115897435</v>
       </c>
       <c r="BT5" t="n">
-        <v>5931.672477365498</v>
+        <v>20708.14354230767</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.01213839279685783</v>
+        <v>0.006976414736079775</v>
       </c>
       <c r="BV5" t="n">
-        <v>1.19978529648562e-05</v>
+        <v>7.623225352925132e-06</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.02901583943579537</v>
+        <v>0.01173619559171979</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.04648155754953361</v>
+        <v>0.02653812001722453</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.02003449756150736</v>
+        <v>0.002545961768692731</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.02475107402838598</v>
+        <v>0.009893657790412739</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.05774499395073767</v>
+        <v>0.03528818154495688</v>
       </c>
       <c r="CB5" t="n">
-        <v>132</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -1703,241 +1703,241 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9906071428571429</v>
+        <v>29.93955319148936</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9906071428571429</v>
+        <v>29.93955319148936</v>
       </c>
       <c r="D7" t="n">
-        <v>10.96557142857143</v>
+        <v>74.75010638297873</v>
       </c>
       <c r="E7" t="n">
-        <v>11.14796428571428</v>
+        <v>74.75146808510638</v>
       </c>
       <c r="F7" t="n">
-        <v>1484.823214285714</v>
+        <v>632.1914893617021</v>
       </c>
       <c r="G7" t="n">
-        <v>1808.384642857143</v>
+        <v>881.9787234042553</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7400012604571428</v>
+        <v>0.8459780285063829</v>
       </c>
       <c r="I7" t="n">
-        <v>0.007119381239285715</v>
+        <v>0.003676093172340425</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7123508035428571</v>
+        <v>0.9079047946</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5591907406821429</v>
+        <v>0.8789130363106382</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8873498913035714</v>
+        <v>0.8773135968148936</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8041071468178572</v>
+        <v>0.7505104060468084</v>
       </c>
       <c r="N7" t="n">
-        <v>0.7385044901607143</v>
+        <v>0.8306131686531916</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.329</v>
+        <v>0.635</v>
       </c>
       <c r="R7" t="n">
-        <v>0.329</v>
+        <v>0.66</v>
       </c>
       <c r="S7" t="n">
-        <v>1298.2</v>
+        <v>598</v>
       </c>
       <c r="T7" t="n">
-        <v>1604.1</v>
+        <v>773</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2948813605</v>
+        <v>0.3362352235</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0003093007</v>
+        <v>0.0003720199</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0971090988</v>
+        <v>0.0452627059</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0682137911</v>
+        <v>0.0024608071</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.2665514983</v>
+        <v>0.531952424</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>0.4187029407</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.1236652135</v>
+        <v>0.2829435769</v>
       </c>
       <c r="AB7" t="n">
-        <v>3</v>
+        <v>98.8</v>
       </c>
       <c r="AC7" t="n">
-        <v>3</v>
+        <v>98.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AE7" t="n">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="AF7" t="n">
-        <v>1875.56</v>
+        <v>773</v>
       </c>
       <c r="AG7" t="n">
-        <v>2107.01</v>
+        <v>900</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.953162429</v>
+        <v>0.9610718389</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.0205058026</v>
+        <v>0.0158694535</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.9974062707</v>
+        <v>0.9965388439</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.992933812</v>
+        <v>0.9936186671</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.9759122342</v>
+        <v>0.9740567573</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.9657967203</v>
+        <v>0.9309646368</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.9756852864</v>
+        <v>0.9839267175999999</v>
       </c>
       <c r="AO7" t="n">
-        <v>1</v>
+        <v>2.527</v>
       </c>
       <c r="AP7" t="n">
-        <v>1</v>
+        <v>2.527</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2.7905</v>
+        <v>90</v>
       </c>
       <c r="AR7" t="n">
-        <v>3.4195</v>
+        <v>90</v>
       </c>
       <c r="AS7" t="n">
-        <v>1426.44</v>
+        <v>600</v>
       </c>
       <c r="AT7" t="n">
-        <v>1799.415</v>
+        <v>898</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.7816012218999999</v>
+        <v>0.894939319</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.00567847865</v>
+        <v>0.0019747396</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.7773537034</v>
+        <v>0.9831503606999999</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.565143933</v>
+        <v>0.9721125261</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.9387377621999999</v>
+        <v>0.9151289028</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.8390565167499999</v>
+        <v>0.785581658</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.8144796218</v>
+        <v>0.8588673306</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.6262298323379787</v>
+        <v>38.25266699699485</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.6262298323379787</v>
+        <v>38.25266699699485</v>
       </c>
       <c r="BD7" t="n">
-        <v>19.05046352780789</v>
+        <v>32.39898494064418</v>
       </c>
       <c r="BE7" t="n">
-        <v>18.97272214890151</v>
+        <v>32.3958028916328</v>
       </c>
       <c r="BF7" t="n">
-        <v>158.7492698625046</v>
+        <v>55.23650269832692</v>
       </c>
       <c r="BG7" t="n">
-        <v>125.0695568098347</v>
+        <v>39.83688991795012</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.164855693929308</v>
+        <v>0.1213392006633614</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.005241413650856863</v>
+        <v>0.00336590778684376</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.2234758190922911</v>
+        <v>0.1986357666621048</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.2254146614452186</v>
+        <v>0.2575465654557684</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.1437381019033529</v>
+        <v>0.1038369365407132</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.1828152022188606</v>
+        <v>0.1265764805216439</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.2482472151236221</v>
+        <v>0.1406274043086776</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.3921638029100529</v>
+        <v>1463.266532382979</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.3921638029100529</v>
+        <v>1463.266532382979</v>
       </c>
       <c r="BQ7" t="n">
-        <v>362.9201606243386</v>
+        <v>1049.694225184089</v>
       </c>
       <c r="BR7" t="n">
-        <v>359.964185739418</v>
+        <v>1049.488044993524</v>
       </c>
       <c r="BS7" t="n">
-        <v>25201.33068187831</v>
+        <v>3051.071230342277</v>
       </c>
       <c r="BT7" t="n">
-        <v>15642.39404060847</v>
+        <v>1586.977798334876</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.02717739982091369</v>
+        <v>0.0147232016176235</v>
       </c>
       <c r="BV7" t="n">
-        <v>2.747241705938867e-05</v>
+        <v>1.132933522953546e-05</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.04994144171897041</v>
+        <v>0.03945616779744214</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.05081176959446253</v>
+        <v>0.06633023337806238</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.02066064193877867</v>
+        <v>0.0107821093901601</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.0334213981623229</v>
+        <v>0.0160216054212461</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.06162667981663389</v>
+        <v>0.01977606684259628</v>
       </c>
       <c r="CB7" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
@@ -1945,43 +1945,43 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6422181069958848</v>
+        <v>19.167225</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6422181069958848</v>
+        <v>19.167225</v>
       </c>
       <c r="D8" t="n">
-        <v>7.837423868312757</v>
+        <v>6.162016666666667</v>
       </c>
       <c r="E8" t="n">
-        <v>7.892567901234568</v>
+        <v>6.288600000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>890.9687242798353</v>
+        <v>1117.090416666667</v>
       </c>
       <c r="G8" t="n">
-        <v>1179.078925925926</v>
+        <v>1427.547166666667</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8709269386329218</v>
+        <v>0.8278050562116667</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.0102177747</v>
+        <v>0.004152125225833333</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9395102727502058</v>
+        <v>0.9021874949341666</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9302453533954733</v>
+        <v>0.8479366106425</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8794118266193416</v>
+        <v>0.8768211850416667</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7665747811127572</v>
+        <v>0.7733797654008333</v>
       </c>
       <c r="N8" t="n">
-        <v>0.8549096989596707</v>
+        <v>0.7832526406524999</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1990,196 +1990,196 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.467</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
-        <v>0.467</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="T8" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="U8" t="n">
-        <v>-1</v>
+        <v>0.4649397051</v>
       </c>
       <c r="V8" t="n">
-        <v>-1</v>
+        <v>0.0002641955</v>
       </c>
       <c r="W8" t="n">
-        <v>-1</v>
+        <v>0.55060393</v>
       </c>
       <c r="X8" t="n">
-        <v>-1</v>
+        <v>0.3918447426</v>
       </c>
       <c r="Y8" t="n">
-        <v>-1</v>
+        <v>0.0335877087</v>
       </c>
       <c r="Z8" t="n">
-        <v>-1</v>
+        <v>0.4287192097</v>
       </c>
       <c r="AA8" t="n">
-        <v>-1</v>
+        <v>0.0986330614</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.99</v>
+        <v>100</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.99</v>
+        <v>100</v>
       </c>
       <c r="AD8" t="n">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="AE8" t="n">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="AF8" t="n">
-        <v>986</v>
+        <v>1300</v>
       </c>
       <c r="AG8" t="n">
-        <v>1262</v>
+        <v>1650</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.9680961335</v>
+        <v>0.9612811595</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.0167225395</v>
+        <v>0.0145091733</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.9973059754</v>
+        <v>0.9969526648</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.9934719576</v>
+        <v>0.9911911353</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.9862664711</v>
+        <v>0.9896239704000001</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.9603274182</v>
+        <v>0.9435026164</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.9943449702</v>
+        <v>0.9870299435</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>9.869</v>
+        <v>1.013</v>
       </c>
       <c r="AR8" t="n">
-        <v>9.869</v>
+        <v>1.013</v>
       </c>
       <c r="AS8" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="AT8" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.915602657</v>
+        <v>0.83898079625</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.0016704548</v>
+        <v>0.0025519669</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.9895783199</v>
+        <v>0.978462436</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.9823400682</v>
+        <v>0.968384983</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.9387592451</v>
+        <v>0.9308542899</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.7999984017</v>
+        <v>0.78918265715</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.9023517037</v>
+        <v>0.86249363555</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.4509912472823916</v>
+        <v>38.46119918258393</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.4509912472823916</v>
+        <v>38.46119918258393</v>
       </c>
       <c r="BD8" t="n">
-        <v>4.597166662151074</v>
+        <v>11.12677323568587</v>
       </c>
       <c r="BE8" t="n">
-        <v>4.75408737130553</v>
+        <v>11.27776613362353</v>
       </c>
       <c r="BF8" t="n">
-        <v>53.49973891588905</v>
+        <v>49.33917345923081</v>
       </c>
       <c r="BG8" t="n">
-        <v>48.29760768165799</v>
+        <v>68.18799640764965</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.2225115017336256</v>
+        <v>0.1089874993124192</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.1109076696325963</v>
+        <v>0.003511215381006349</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.2352635503594669</v>
+        <v>0.1181841665217693</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.2431009434359486</v>
+        <v>0.1952677126795173</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.2585608950203079</v>
+        <v>0.200841068453403</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.2163400810682947</v>
+        <v>0.117783217733159</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.2352702367780324</v>
+        <v>0.197517852484671</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.2033931051253274</v>
+        <v>1479.263842562395</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.2033931051253274</v>
+        <v>1479.263842562395</v>
       </c>
       <c r="BQ8" t="n">
-        <v>21.13394131959324</v>
+        <v>123.8050826383753</v>
       </c>
       <c r="BR8" t="n">
-        <v>22.60134673400673</v>
+        <v>127.1880089647058</v>
       </c>
       <c r="BS8" t="n">
-        <v>2862.222064068294</v>
+        <v>2434.354037640066</v>
       </c>
       <c r="BT8" t="n">
-        <v>2332.658907771348</v>
+        <v>4649.602854089641</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.04951136840375326</v>
+        <v>0.01187827500637457</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.01230051118333311</v>
+        <v>1.232863345181556e-05</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.05534893812774142</v>
+        <v>0.01396749721644529</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.05909806869944827</v>
+        <v>0.03812947961509051</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.06685373643370268</v>
+        <v>0.04033713477750452</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.04680303067663635</v>
+        <v>0.01387288637957675</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.05535208431359144</v>
+        <v>0.03901330205015625</v>
       </c>
       <c r="CB8" t="n">
-        <v>243</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
@@ -2377,43 +2377,43 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>0.534625</v>
+        <v>0.8543209876543211</v>
       </c>
       <c r="C10" t="n">
-        <v>23.034625</v>
+        <v>0.8543209876543211</v>
       </c>
       <c r="D10" t="n">
-        <v>10.840425</v>
+        <v>2.406296296296296</v>
       </c>
       <c r="E10" t="n">
-        <v>10.959425</v>
+        <v>2.413888888888889</v>
       </c>
       <c r="F10" t="n">
-        <v>1099.21</v>
+        <v>940.8049506172839</v>
       </c>
       <c r="G10" t="n">
-        <v>1901.7325</v>
+        <v>1361.083351851852</v>
       </c>
       <c r="H10" t="n">
-        <v>0.84518107738</v>
+        <v>0.7892142509092593</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0039492273925</v>
+        <v>-0.03457080912160494</v>
       </c>
       <c r="J10" t="n">
-        <v>0.89768319371</v>
+        <v>0.8784031631555554</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8149391013024999</v>
+        <v>0.8717225921598766</v>
       </c>
       <c r="L10" t="n">
-        <v>0.92273294294</v>
+        <v>0.7961969075290124</v>
       </c>
       <c r="M10" t="n">
-        <v>0.766052923715</v>
+        <v>0.7441637040611111</v>
       </c>
       <c r="N10" t="n">
-        <v>0.8348391513325</v>
+        <v>0.7223995692734568</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -2422,196 +2422,196 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="R10" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="S10" t="n">
-        <v>882</v>
+        <v>782.759</v>
       </c>
       <c r="T10" t="n">
-        <v>1700</v>
+        <v>1266.34</v>
       </c>
       <c r="U10" t="n">
-        <v>0.5970137135</v>
+        <v>-1</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0003933617</v>
+        <v>-1</v>
       </c>
       <c r="W10" t="n">
-        <v>0.5963632551</v>
+        <v>-1</v>
       </c>
       <c r="X10" t="n">
-        <v>0.4948970297</v>
+        <v>-1</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.7073499865</v>
+        <v>-1</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.5126257609</v>
+        <v>-1</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB10" t="n">
         <v>2</v>
       </c>
       <c r="AC10" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="AD10" t="n">
-        <v>50.663</v>
+        <v>10.133</v>
       </c>
       <c r="AE10" t="n">
-        <v>50.663</v>
+        <v>10.133</v>
       </c>
       <c r="AF10" t="n">
-        <v>1275.4</v>
+        <v>1038</v>
       </c>
       <c r="AG10" t="n">
-        <v>2374</v>
+        <v>1477.778</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.9594318944</v>
+        <v>0.9714886309</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.0121578455</v>
+        <v>0.0153245443</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.9983894842</v>
+        <v>0.9979321354</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.9957018801</v>
+        <v>0.9954534551000001</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.9698015395</v>
+        <v>0.9847410997</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.9538410307</v>
+        <v>0.9801213859</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.982625636</v>
+        <v>0.9931258005</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.629</v>
+        <v>1</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.621</v>
+        <v>1.013</v>
       </c>
       <c r="AR10" t="n">
-        <v>1.825</v>
+        <v>1.013</v>
       </c>
       <c r="AS10" t="n">
-        <v>1072.75</v>
+        <v>950</v>
       </c>
       <c r="AT10" t="n">
-        <v>1884</v>
+        <v>1375</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.8517308237500001</v>
+        <v>0.8650541501</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.00390807255</v>
+        <v>0.0016242314</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.9113534478</v>
+        <v>0.9806151176</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.78688738125</v>
+        <v>0.9740522073</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.9420221359000001</v>
+        <v>0.9214076757</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.7868686014999999</v>
+        <v>0.8230364411</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.9048899589</v>
+        <v>0.80891023105</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.4162518152728571</v>
+        <v>0.4753682803017372</v>
       </c>
       <c r="BC10" t="n">
-        <v>41.99952147388416</v>
+        <v>0.4753682803017372</v>
       </c>
       <c r="BD10" t="n">
-        <v>17.65409899797008</v>
+        <v>3.243697204027338</v>
       </c>
       <c r="BE10" t="n">
-        <v>17.59478095678681</v>
+        <v>3.247945449011044</v>
       </c>
       <c r="BF10" t="n">
-        <v>102.68476595374</v>
+        <v>40.24053227343946</v>
       </c>
       <c r="BG10" t="n">
-        <v>143.9032436823704</v>
+        <v>43.3643929024112</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.08352493481637549</v>
+        <v>0.3590925263436285</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.002761018897603769</v>
+        <v>0.1899374316102898</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.1083337232431333</v>
+        <v>0.3782413983456537</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.162905248587099</v>
+        <v>0.3793697648599612</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.05045752440115082</v>
+        <v>0.401352774893089</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.09946686780236291</v>
+        <v>0.3573662194084316</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.1878514880030416</v>
+        <v>0.3719635827742806</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.1732655737179487</v>
+        <v>0.225975001917031</v>
       </c>
       <c r="BP10" t="n">
-        <v>1763.959804035256</v>
+        <v>0.225975001917031</v>
       </c>
       <c r="BQ10" t="n">
-        <v>311.6672114301282</v>
+        <v>10.52157155141477</v>
       </c>
       <c r="BR10" t="n">
-        <v>309.5763169173076</v>
+        <v>10.54914963975155</v>
       </c>
       <c r="BS10" t="n">
-        <v>10544.16115897435</v>
+        <v>1619.300437649722</v>
       </c>
       <c r="BT10" t="n">
-        <v>20708.14354230767</v>
+        <v>1880.47057179469</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.006976414736079775</v>
+        <v>0.1289474424758495</v>
       </c>
       <c r="BV10" t="n">
-        <v>7.623225352925132e-06</v>
+        <v>0.03607622792671351</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.01173619559171979</v>
+        <v>0.1430665554224755</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.02653812001722453</v>
+        <v>0.1439214184899023</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.002545961768692731</v>
+        <v>0.1610840499143826</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.009893657790412739</v>
+        <v>0.1277106147742752</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.03528818154495688</v>
+        <v>0.1383569069102791</v>
       </c>
       <c r="CB10" t="n">
-        <v>40</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11">
@@ -2619,43 +2619,43 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8543209876543211</v>
+        <v>0.9906071428571429</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8543209876543211</v>
+        <v>0.9906071428571429</v>
       </c>
       <c r="D11" t="n">
-        <v>2.406296296296296</v>
+        <v>10.96557142857143</v>
       </c>
       <c r="E11" t="n">
-        <v>2.413888888888889</v>
+        <v>11.14796428571428</v>
       </c>
       <c r="F11" t="n">
-        <v>940.8049506172839</v>
+        <v>1484.823214285714</v>
       </c>
       <c r="G11" t="n">
-        <v>1361.083351851852</v>
+        <v>1808.384642857143</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7892142509092593</v>
+        <v>0.7400012604571428</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.03457080912160494</v>
+        <v>0.007119381239285715</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8784031631555554</v>
+        <v>0.7123508035428571</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8717225921598766</v>
+        <v>0.5591907406821429</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7961969075290124</v>
+        <v>0.8873498913035714</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7441637040611111</v>
+        <v>0.8041071468178572</v>
       </c>
       <c r="N11" t="n">
-        <v>0.7223995692734568</v>
+        <v>0.7385044901607143</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -2664,76 +2664,76 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>0.329</v>
       </c>
       <c r="R11" t="n">
-        <v>1</v>
+        <v>0.329</v>
       </c>
       <c r="S11" t="n">
-        <v>782.759</v>
+        <v>1298.2</v>
       </c>
       <c r="T11" t="n">
-        <v>1266.34</v>
+        <v>1604.1</v>
       </c>
       <c r="U11" t="n">
-        <v>-1</v>
+        <v>0.2948813605</v>
       </c>
       <c r="V11" t="n">
-        <v>-1</v>
+        <v>0.0003093007</v>
       </c>
       <c r="W11" t="n">
-        <v>-1</v>
+        <v>0.0971090988</v>
       </c>
       <c r="X11" t="n">
-        <v>-1</v>
+        <v>0.0682137911</v>
       </c>
       <c r="Y11" t="n">
-        <v>-1</v>
+        <v>0.2665514983</v>
       </c>
       <c r="Z11" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>-1</v>
+        <v>0.1236652135</v>
       </c>
       <c r="AB11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD11" t="n">
-        <v>10.133</v>
+        <v>64</v>
       </c>
       <c r="AE11" t="n">
-        <v>10.133</v>
+        <v>64</v>
       </c>
       <c r="AF11" t="n">
-        <v>1038</v>
+        <v>1875.56</v>
       </c>
       <c r="AG11" t="n">
-        <v>1477.778</v>
+        <v>2107.01</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.9714886309</v>
+        <v>0.953162429</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.0153245443</v>
+        <v>0.0205058026</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.9979321354</v>
+        <v>0.9974062707</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.9954534551000001</v>
+        <v>0.992933812</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.9847410997</v>
+        <v>0.9759122342</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.9801213859</v>
+        <v>0.9657967203</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.9931258005</v>
+        <v>0.9756852864</v>
       </c>
       <c r="AO11" t="n">
         <v>1</v>
@@ -2742,118 +2742,118 @@
         <v>1</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.013</v>
+        <v>2.7905</v>
       </c>
       <c r="AR11" t="n">
-        <v>1.013</v>
+        <v>3.4195</v>
       </c>
       <c r="AS11" t="n">
-        <v>950</v>
+        <v>1426.44</v>
       </c>
       <c r="AT11" t="n">
-        <v>1375</v>
+        <v>1799.415</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.8650541501</v>
+        <v>0.7816012218999999</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.0016242314</v>
+        <v>0.00567847865</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.9806151176</v>
+        <v>0.7773537034</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.9740522073</v>
+        <v>0.565143933</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.9214076757</v>
+        <v>0.9387377621999999</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.8230364411</v>
+        <v>0.8390565167499999</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.80891023105</v>
+        <v>0.8144796218</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.4753682803017372</v>
+        <v>0.6262298323379787</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.4753682803017372</v>
+        <v>0.6262298323379787</v>
       </c>
       <c r="BD11" t="n">
-        <v>3.243697204027338</v>
+        <v>19.05046352780789</v>
       </c>
       <c r="BE11" t="n">
-        <v>3.247945449011044</v>
+        <v>18.97272214890151</v>
       </c>
       <c r="BF11" t="n">
-        <v>40.24053227343946</v>
+        <v>158.7492698625046</v>
       </c>
       <c r="BG11" t="n">
-        <v>43.3643929024112</v>
+        <v>125.0695568098347</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.3590925263436285</v>
+        <v>0.164855693929308</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.1899374316102898</v>
+        <v>0.005241413650856863</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.3782413983456537</v>
+        <v>0.2234758190922911</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.3793697648599612</v>
+        <v>0.2254146614452186</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.401352774893089</v>
+        <v>0.1437381019033529</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.3573662194084316</v>
+        <v>0.1828152022188606</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.3719635827742806</v>
+        <v>0.2482472151236221</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.225975001917031</v>
+        <v>0.3921638029100529</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.225975001917031</v>
+        <v>0.3921638029100529</v>
       </c>
       <c r="BQ11" t="n">
-        <v>10.52157155141477</v>
+        <v>362.9201606243386</v>
       </c>
       <c r="BR11" t="n">
-        <v>10.54914963975155</v>
+        <v>359.964185739418</v>
       </c>
       <c r="BS11" t="n">
-        <v>1619.300437649722</v>
+        <v>25201.33068187831</v>
       </c>
       <c r="BT11" t="n">
-        <v>1880.47057179469</v>
+        <v>15642.39404060847</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.1289474424758495</v>
+        <v>0.02717739982091369</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.03607622792671351</v>
+        <v>2.747241705938867e-05</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.1430665554224755</v>
+        <v>0.04994144171897041</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.1439214184899023</v>
+        <v>0.05081176959446253</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.1610840499143826</v>
+        <v>0.02066064193877867</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.1277106147742752</v>
+        <v>0.0334213981623229</v>
       </c>
       <c r="CA11" t="n">
-        <v>0.1383569069102791</v>
+        <v>0.06162667981663389</v>
       </c>
       <c r="CB11" t="n">
-        <v>162</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
@@ -2861,241 +2861,241 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>19.167225</v>
+        <v>0.9119047619047619</v>
       </c>
       <c r="C12" t="n">
-        <v>19.167225</v>
+        <v>0.9119047619047619</v>
       </c>
       <c r="D12" t="n">
-        <v>6.162016666666667</v>
+        <v>9.128066666666665</v>
       </c>
       <c r="E12" t="n">
-        <v>6.288600000000001</v>
+        <v>9.128066666666665</v>
       </c>
       <c r="F12" t="n">
-        <v>1117.090416666667</v>
+        <v>560</v>
       </c>
       <c r="G12" t="n">
-        <v>1427.547166666667</v>
+        <v>1030</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8278050562116667</v>
+        <v>0.8872705358619047</v>
       </c>
       <c r="I12" t="n">
-        <v>0.004152125225833333</v>
+        <v>0.001797595893333333</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9021874949341666</v>
+        <v>0.9868997858619049</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8479366106425</v>
+        <v>0.9813722812828573</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8768211850416667</v>
+        <v>0.8578279077000001</v>
       </c>
       <c r="M12" t="n">
-        <v>0.7733797654008333</v>
+        <v>0.7065920580466667</v>
       </c>
       <c r="N12" t="n">
-        <v>0.7832526406524999</v>
+        <v>0.8954655911466666</v>
       </c>
       <c r="O12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="S12" t="n">
+        <v>560</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1030</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.6493852642</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.0001849849</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.9657523821</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.9424191463</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.0706319394</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.3545168841</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.4593977273</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>10.133</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>10.133</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>560</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>1030</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.9645057748</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.0123637016</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0.997657244</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.9945713356</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.9808544878</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.9226366655</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.9920946291</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>10.133</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>10.133</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>560</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>1030</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0.8990550522</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0.0012276132</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0.9895383008999999</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0.9815180610999999</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0.8809618256</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0.70937175</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0.9444587766</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0.4803606322299286</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0.4803606322299286</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>1.757018558998927</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>1.757018558998927</v>
+      </c>
+      <c r="BF12" t="n">
         <v>0</v>
       </c>
-      <c r="P12" t="n">
+      <c r="BG12" t="n">
         <v>0</v>
       </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1</v>
-      </c>
-      <c r="S12" t="n">
-        <v>950</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1300</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0.4649397051</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0.0002641955</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0.55060393</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0.3918447426</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0.0335877087</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0.4287192097</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0.0986330614</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>100</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>64</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>64</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>1300</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>1650</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>0.9612811595</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0.0145091733</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>0.9969526648</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>0.9911911353</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>0.9896239704000001</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>0.9435026164</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>0.9870299435</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>1.013</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>1.013</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>1100</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>1400</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>0.83898079625</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>0.0025519669</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>0.978462436</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>0.968384983</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>0.9308542899</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>0.78918265715</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>0.86249363555</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>38.46119918258393</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>38.46119918258393</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>11.12677323568587</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>11.27776613362353</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>49.33917345923081</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>68.18799640764965</v>
-      </c>
       <c r="BH12" t="n">
-        <v>0.1089874993124192</v>
+        <v>0.06198892977566858</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.003511215381006349</v>
+        <v>0.00180333909056913</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.1181841665217693</v>
+        <v>0.008160550860882033</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.1952677126795173</v>
+        <v>0.008700872197523329</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.200841068453403</v>
+        <v>0.1186796733124424</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.117783217733159</v>
+        <v>0.1328141473822382</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.197517852484671</v>
+        <v>0.1266383600283395</v>
       </c>
       <c r="BO12" t="n">
-        <v>1479.263842562395</v>
+        <v>0.2307463369963368</v>
       </c>
       <c r="BP12" t="n">
-        <v>1479.263842562395</v>
+        <v>0.2307463369963368</v>
       </c>
       <c r="BQ12" t="n">
-        <v>123.8050826383753</v>
+        <v>3.087114216666665</v>
       </c>
       <c r="BR12" t="n">
-        <v>127.1880089647058</v>
+        <v>3.087114216666665</v>
       </c>
       <c r="BS12" t="n">
-        <v>2434.354037640066</v>
+        <v>0</v>
       </c>
       <c r="BT12" t="n">
-        <v>4649.602854089641</v>
+        <v>0</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.01187827500637457</v>
+        <v>0.00384262741473277</v>
       </c>
       <c r="BV12" t="n">
-        <v>1.232863345181556e-05</v>
+        <v>3.252031875574698e-06</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.01396749721644529</v>
+        <v>6.659459035304249e-05</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.03812947961509051</v>
+        <v>7.570517699763447e-05</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.04033713477750452</v>
+        <v>0.01408486485754805</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.01387288637957675</v>
+        <v>0.01763959774487088</v>
       </c>
       <c r="CA12" t="n">
-        <v>0.03901330205015625</v>
+        <v>0.01603727423066734</v>
       </c>
       <c r="CB12" t="n">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13">
@@ -3103,241 +3103,241 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>29.93955319148936</v>
+        <v>0.6948106060606061</v>
       </c>
       <c r="C13" t="n">
-        <v>29.93955319148936</v>
+        <v>0.6948106060606061</v>
       </c>
       <c r="D13" t="n">
-        <v>74.75010638297873</v>
+        <v>9.45771212121212</v>
       </c>
       <c r="E13" t="n">
-        <v>74.75146808510638</v>
+        <v>9.649909090909091</v>
       </c>
       <c r="F13" t="n">
-        <v>632.1914893617021</v>
+        <v>1067.860234848485</v>
       </c>
       <c r="G13" t="n">
-        <v>881.9787234042553</v>
+        <v>1198.31046969697</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8459780285063829</v>
+        <v>0.7638503355424242</v>
       </c>
       <c r="I13" t="n">
-        <v>0.003676093172340425</v>
+        <v>0.004496421938636364</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9079047946</v>
+        <v>0.7881209785613636</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8789130363106382</v>
+        <v>0.6594244160287879</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8773135968148936</v>
+        <v>0.8795300019325758</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7505104060468084</v>
+        <v>0.7160489864189393</v>
       </c>
       <c r="N13" t="n">
-        <v>0.8306131686531916</v>
+        <v>0.7699888151469697</v>
       </c>
       <c r="O13" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.635</v>
+        <v>0.987</v>
       </c>
       <c r="R13" t="n">
-        <v>0.66</v>
+        <v>0.987</v>
       </c>
       <c r="S13" t="n">
-        <v>598</v>
+        <v>974.98</v>
       </c>
       <c r="T13" t="n">
-        <v>773</v>
+        <v>1040</v>
       </c>
       <c r="U13" t="n">
-        <v>0.3362352235</v>
+        <v>0.4141569367</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0003720199</v>
+        <v>0.0001081562</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0452627059</v>
+        <v>0.2841792758</v>
       </c>
       <c r="X13" t="n">
-        <v>0.0024608071</v>
+        <v>0.3241452063</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.531952424</v>
+        <v>0.0289887956</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.4187029407</v>
+        <v>0.1047507834</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.2829435769</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>98.8</v>
+        <v>2</v>
       </c>
       <c r="AC13" t="n">
-        <v>98.8</v>
+        <v>2</v>
       </c>
       <c r="AD13" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AE13" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AF13" t="n">
-        <v>773</v>
+        <v>1180.68</v>
       </c>
       <c r="AG13" t="n">
-        <v>900</v>
+        <v>1311</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.9610718389</v>
+        <v>0.9646040933</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.0158694535</v>
+        <v>0.0175630638</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.9965388439</v>
+        <v>0.9961060343</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.9936186671</v>
+        <v>0.9906514389</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.9740567573</v>
+        <v>0.9761792825</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.9309646368</v>
+        <v>0.9594922487999999</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.9839267175999999</v>
+        <v>0.9912285399</v>
       </c>
       <c r="AO13" t="n">
-        <v>2.527</v>
+        <v>0.6</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.527</v>
+        <v>0.6</v>
       </c>
       <c r="AQ13" t="n">
-        <v>90</v>
+        <v>1.013</v>
       </c>
       <c r="AR13" t="n">
-        <v>90</v>
+        <v>1.013</v>
       </c>
       <c r="AS13" t="n">
-        <v>600</v>
+        <v>1096.065</v>
       </c>
       <c r="AT13" t="n">
-        <v>898</v>
+        <v>1199</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.894939319</v>
+        <v>0.7794462998</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.0019747396</v>
+        <v>0.0041940604</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.9831503606999999</v>
+        <v>0.79371319555</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.9721125261</v>
+        <v>0.5542267312</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.9151289028</v>
+        <v>0.9245966694</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.785581658</v>
+        <v>0.7594082165</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.8588673306</v>
+        <v>0.8707088451</v>
       </c>
       <c r="BB13" t="n">
-        <v>38.25266699699485</v>
+        <v>0.4877029212836821</v>
       </c>
       <c r="BC13" t="n">
-        <v>38.25266699699485</v>
+        <v>0.4877029212836821</v>
       </c>
       <c r="BD13" t="n">
-        <v>32.39898494064418</v>
+        <v>18.69407161263907</v>
       </c>
       <c r="BE13" t="n">
-        <v>32.3958028916328</v>
+        <v>18.77693725338685</v>
       </c>
       <c r="BF13" t="n">
-        <v>55.23650269832692</v>
+        <v>49.18281013252707</v>
       </c>
       <c r="BG13" t="n">
-        <v>39.83688991795012</v>
+        <v>77.01735179403079</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.1213392006633614</v>
+        <v>0.1101743745017771</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.00336590778684376</v>
+        <v>0.003463791703445257</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.1986357666621048</v>
+        <v>0.1703403634955478</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.2575465654557684</v>
+        <v>0.2155958198795459</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.1038369365407132</v>
+        <v>0.1415432709863219</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.1265764805216439</v>
+        <v>0.1573247406747775</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.1406274043086776</v>
+        <v>0.240301880872243</v>
       </c>
       <c r="BO13" t="n">
-        <v>1463.266532382979</v>
+        <v>0.2378541394286375</v>
       </c>
       <c r="BP13" t="n">
-        <v>1463.266532382979</v>
+        <v>0.2378541394286375</v>
       </c>
       <c r="BQ13" t="n">
-        <v>1049.694225184089</v>
+        <v>349.468313458478</v>
       </c>
       <c r="BR13" t="n">
-        <v>1049.488044993524</v>
+        <v>352.5733726176268</v>
       </c>
       <c r="BS13" t="n">
-        <v>3051.071230342277</v>
+        <v>2418.948812532208</v>
       </c>
       <c r="BT13" t="n">
-        <v>1586.977798334876</v>
+        <v>5931.672477365498</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.0147232016176235</v>
+        <v>0.01213839279685783</v>
       </c>
       <c r="BV13" t="n">
-        <v>1.132933522953546e-05</v>
+        <v>1.19978529648562e-05</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.03945616779744214</v>
+        <v>0.02901583943579537</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.06633023337806238</v>
+        <v>0.04648155754953361</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.0107821093901601</v>
+        <v>0.02003449756150736</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.0160216054212461</v>
+        <v>0.02475107402838598</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.01977606684259628</v>
+        <v>0.05774499395073767</v>
       </c>
       <c r="CB13" t="n">
-        <v>47</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
